--- a/ParameterNameList/parameterList_task_alf_immediate.xlsx
+++ b/ParameterNameList/parameterList_task_alf_immediate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Masud_OxfordCognition\Project13_ECT\OxCog_analysis_ECT\ParameterNameList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sijiazhao/Documents/GitHub/Masud_OxfordCognition/ECT/OxCog_analysis_ECT/ParameterNameList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EF5382-B5DE-4C0A-817C-1A9DE2DDB2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FA571F-3F63-5D4D-94A5-2043FD99024A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{837278C6-3617-4250-9B66-D7B6D4290612}"/>
+    <workbookView xWindow="840" yWindow="6340" windowWidth="10000" windowHeight="16780" xr2:uid="{837278C6-3617-4250-9B66-D7B6D4290612}"/>
   </bookViews>
   <sheets>
     <sheet name="all (2)" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>plist</t>
   </si>
@@ -91,20 +91,28 @@
     <t>pfa_old_recognise_2</t>
   </si>
   <si>
-    <t>testTime_alf_immediate</t>
+    <t>ALF_nImmediateRecall</t>
+  </si>
+  <si>
+    <t>ALF_pImmediateRecall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,18 +452,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A09968-D012-4532-A57D-DEDEB9BCF328}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,83 +471,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -556,13 +501,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -581,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -589,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -597,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -605,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -613,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -621,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -629,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -637,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -645,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -653,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -661,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -669,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
